--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,21 +46,18 @@
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -70,25 +67,37 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
@@ -97,22 +106,25 @@
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>better</t>
@@ -121,37 +133,31 @@
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>alert</t>
   </si>
   <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5263157894736842</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8839285714285714</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3915343915343915</v>
+        <v>0.3313953488372093</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>115</v>
+        <v>345</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.864406779661017</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3391472868217054</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C7">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2533333333333334</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,69 +852,45 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8172323759791122</v>
+      </c>
+      <c r="L8">
+        <v>313</v>
+      </c>
+      <c r="M8">
+        <v>313</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L8">
-        <v>22</v>
-      </c>
-      <c r="M8">
-        <v>22</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1610738255033557</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>125</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.8459530026109661</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>324</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>324</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -920,21 +902,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -946,21 +928,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -972,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -998,21 +980,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1024,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1050,12 +1032,12 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.75625</v>
@@ -1081,16 +1063,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7535211267605634</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1102,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.75</v>
       </c>
       <c r="L17">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1128,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1154,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1180,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6825396825396826</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1206,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6058823529411764</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L21">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1232,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1263,16 +1245,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1284,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5692307692307692</v>
+        <v>0.65</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1310,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5648535564853556</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L25">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1336,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5638297872340425</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="M26">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1362,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.559322033898305</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1388,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5581395348837209</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1414,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5280898876404494</v>
+        <v>0.5564853556485355</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1440,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1466,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4857142857142857</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1492,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L32">
         <v>45</v>
       </c>
-      <c r="K32">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="L32">
-        <v>22</v>
-      </c>
       <c r="M32">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1518,7 +1500,85 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>56</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="L33">
+        <v>19</v>
+      </c>
+      <c r="M33">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.3150684931506849</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
